--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>35.995988</v>
+        <v>31.749936</v>
       </c>
       <c r="H2">
-        <v>107.987964</v>
+        <v>95.249808</v>
       </c>
       <c r="I2">
-        <v>0.5613901502831141</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="J2">
-        <v>0.561390150283114</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>4213.134685213245</v>
+        <v>2447.58743210384</v>
       </c>
       <c r="R2">
-        <v>37918.2121669192</v>
+        <v>22028.28688893456</v>
       </c>
       <c r="S2">
-        <v>0.1821916307410376</v>
+        <v>0.1274708270707201</v>
       </c>
       <c r="T2">
-        <v>0.1821916307410376</v>
+        <v>0.1274708270707201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>35.995988</v>
+        <v>31.749936</v>
       </c>
       <c r="H3">
-        <v>107.987964</v>
+        <v>95.249808</v>
       </c>
       <c r="I3">
-        <v>0.5613901502831141</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="J3">
-        <v>0.561390150283114</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>3656.473804890219</v>
+        <v>3225.159684210944</v>
       </c>
       <c r="R3">
-        <v>32908.26424401197</v>
+        <v>29026.4371578985</v>
       </c>
       <c r="S3">
-        <v>0.1581195416355691</v>
+        <v>0.167966940420239</v>
       </c>
       <c r="T3">
-        <v>0.158119541635569</v>
+        <v>0.167966940420239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>35.995988</v>
+        <v>31.749936</v>
       </c>
       <c r="H4">
-        <v>107.987964</v>
+        <v>95.249808</v>
       </c>
       <c r="I4">
-        <v>0.5613901502831141</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="J4">
-        <v>0.561390150283114</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>5112.394604521195</v>
+        <v>4509.341471618816</v>
       </c>
       <c r="R4">
-        <v>46011.55144069075</v>
+        <v>40584.07324456935</v>
       </c>
       <c r="S4">
-        <v>0.2210789779065074</v>
+        <v>0.2348473763968739</v>
       </c>
       <c r="T4">
-        <v>0.2210789779065074</v>
+        <v>0.2348473763968739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>61.999422</v>
       </c>
       <c r="I5">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="J5">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>2418.898418080862</v>
+        <v>1593.168629640727</v>
       </c>
       <c r="R5">
-        <v>21770.08576272776</v>
+        <v>14338.51766676654</v>
       </c>
       <c r="S5">
-        <v>0.1046021739902584</v>
+        <v>0.08297253050889719</v>
       </c>
       <c r="T5">
-        <v>0.1046021739902584</v>
+        <v>0.08297253050889719</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>61.999422</v>
       </c>
       <c r="I6">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="J6">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>2099.301200468362</v>
@@ -818,10 +818,10 @@
         <v>18893.71080421526</v>
       </c>
       <c r="S6">
-        <v>0.09078160033010915</v>
+        <v>0.1093320127339601</v>
       </c>
       <c r="T6">
-        <v>0.09078160033010914</v>
+        <v>0.1093320127339601</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>61.999422</v>
       </c>
       <c r="I7">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="J7">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>2935.19294906081</v>
@@ -880,10 +880,10 @@
         <v>26416.7365415473</v>
       </c>
       <c r="S7">
-        <v>0.1269286718523022</v>
+        <v>0.1528654167452246</v>
       </c>
       <c r="T7">
-        <v>0.1269286718523022</v>
+        <v>0.1528654167452246</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>22.370752</v>
       </c>
       <c r="I8">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="J8">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>872.7916306071253</v>
+        <v>574.8502027627378</v>
       </c>
       <c r="R8">
-        <v>7855.124675464128</v>
+        <v>5173.65182486464</v>
       </c>
       <c r="S8">
-        <v>0.03774275981148537</v>
+        <v>0.02993830979306506</v>
       </c>
       <c r="T8">
-        <v>0.03774275981148537</v>
+        <v>0.02993830979306505</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>22.370752</v>
       </c>
       <c r="I9">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="J9">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>757.4739411115804</v>
@@ -1004,10 +1004,10 @@
         <v>6817.265470004224</v>
       </c>
       <c r="S9">
-        <v>0.03275599355019777</v>
+        <v>0.0394493894238605</v>
       </c>
       <c r="T9">
-        <v>0.03275599355019777</v>
+        <v>0.0394493894238605</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>22.370752</v>
       </c>
       <c r="I10">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="J10">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>1059.082027177415</v>
@@ -1066,10 +1066,10 @@
         <v>9531.738244596736</v>
       </c>
       <c r="S10">
-        <v>0.04579865018253289</v>
+        <v>0.05515719690715934</v>
       </c>
       <c r="T10">
-        <v>0.04579865018253289</v>
+        <v>0.05515719690715933</v>
       </c>
     </row>
   </sheetData>
